--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2014阅读记录簿" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -759,6 +759,10 @@
   </si>
   <si>
     <t>《Head first Python》Barry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《 HP Loadrunner Tutorial 11.0 》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1543,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
@@ -2141,7 +2145,9 @@
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="37"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="27" t="s">
+        <v>151</v>
+      </c>
       <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2676,11 +2682,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2690,6 +2691,11 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2892,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="2014阅读记录簿" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -763,6 +763,30 @@
   </si>
   <si>
     <t>《 HP Loadrunner Tutorial 11.0 》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《LoadRunner使用手册（完整）》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《测试架构师修炼之道  从测试工程师到测试架构师》刘琛梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《图解HTTP》上野 宣（日）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《捉虫记  大容量Web应用性能测试与LoadRunner实战》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《性能测试进阶指南——LoadRunner11实战》陈霁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《HTTP权威指南》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1548,17 +1572,17 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.625" style="29" customWidth="1"/>
     <col min="2" max="2" width="74.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="30" customWidth="1"/>
     <col min="4" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
@@ -2141,29 +2165,41 @@
       <c r="B71" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="27" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="37"/>
       <c r="B72" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="27" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="20"/>
       <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="C74" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="75" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="20"/>
       <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="C75" s="27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="76" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -1575,7 +1575,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2174,12 +2174,9 @@
       <c r="B72" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="27" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="20"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="27" t="s">
         <v>152</v>
       </c>
@@ -2188,14 +2185,18 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="20"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="C74" s="27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="20"/>
+      <c r="A75" s="20">
+        <v>42552</v>
+      </c>
       <c r="B75" s="22"/>
       <c r="C75" s="27" t="s">
         <v>157</v>
@@ -2728,10 +2729,10 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -787,6 +787,10 @@
   </si>
   <si>
     <t>《HTTP权威指南》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《围城》钱钟书</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1575,7 +1579,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2203,9 +2207,13 @@
       </c>
     </row>
     <row r="76" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="20"/>
+      <c r="A76" s="20">
+        <v>42645</v>
+      </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="C76" s="22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
@@ -2719,6 +2727,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2728,11 +2741,6 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -791,6 +791,14 @@
   </si>
   <si>
     <t>《围城》钱钟书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（文）如何用30分钟读懂一本书、不用一年读一百本，你玩主体阅读就好了  彭小六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《王者速读法》齐藤英祝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1579,7 +1587,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2211,18 +2219,23 @@
         <v>42645</v>
       </c>
       <c r="B76" s="22"/>
-      <c r="C76" s="22" t="s">
+    </row>
+    <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="36">
+        <v>42677</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-    </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="20"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2726,7 +2739,8 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -799,6 +799,10 @@
   </si>
   <si>
     <t>《王者速读法》齐藤英祝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《玩转电商系统 深入剖析智慧电商平台》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1587,7 +1591,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2232,15 +2236,17 @@
       </c>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="22" t="s">
         <v>160</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="20"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2740,7 +2746,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -790,19 +790,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>（文）如何用30分钟读懂一本书、不用一年读一百本，你玩主体阅读就好了  彭小六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《王者速读法》齐藤英祝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《玩转电商系统 深入剖析智慧电商平台》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>《围城》钱钟书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（文）如何用30分钟读懂一本书、不用一年读一百本，你玩主体阅读就好了  彭小六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《王者速读法》齐藤英祝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《玩转电商系统 深入剖析智慧电商平台》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1591,7 +1591,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2229,29 +2229,29 @@
         <v>42677</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="22" t="s">
         <v>158</v>
       </c>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="37"/>
       <c r="B78" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="37"/>
+      <c r="B79" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="22"/>
-    </row>
-    <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
-      <c r="B79" s="22" t="s">
+      <c r="C79" s="22"/>
+    </row>
+    <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="38"/>
+      <c r="B80" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="22"/>
-    </row>
-    <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="20"/>
-      <c r="B80" s="22"/>
       <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2746,12 +2746,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A77:A80"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2761,6 +2756,11 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -803,6 +803,14 @@
   </si>
   <si>
     <t>《围城》钱钟书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《断舍离》山下英子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《失控》KK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1588,10 +1596,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2248,15 +2256,19 @@
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="22"/>
+      <c r="C80" s="22" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="20"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2746,7 +2758,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A80"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2761,6 +2772,7 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A77:A81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -811,6 +811,10 @@
   </si>
   <si>
     <t>《失控》KK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高效能人士的十个习惯》江华</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1599,7 +1603,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2265,15 +2269,17 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2758,6 +2764,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2767,12 +2779,6 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A77:A81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -16,44 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C61" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-12月目标</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -790,10 +754,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（文）如何用30分钟读懂一本书、不用一年读一百本，你玩主体阅读就好了  彭小六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>《王者速读法》齐藤英祝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -815,6 +775,22 @@
   </si>
   <si>
     <t>《高效能人士的十个习惯》江华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《番茄工作法图解》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《如何阅读一本书》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（文）如何用30分钟读懂一本书、不用一年读一百本，你玩主题阅读就好了  彭小六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《少的力量》里奥巴伯塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +801,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,21 +926,6 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1596,14 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2241,55 +2202,61 @@
         <v>42677</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="37"/>
       <c r="B78" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="37"/>
       <c r="B79" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="37"/>
       <c r="B80" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="37"/>
       <c r="B81" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="38"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="37"/>
+      <c r="B83" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="22"/>
-    </row>
-    <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2764,7 +2731,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A77:A84"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>
@@ -2783,7 +2750,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -791,6 +791,10 @@
   </si>
   <si>
     <t>《少的力量》里奥巴伯塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一座城池》韩寒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1568,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2253,15 +2257,17 @@
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="22" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="20"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2731,12 +2737,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2746,6 +2746,12 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A77:A85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="1170" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="2014阅读记录簿" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -456,26 +456,6 @@
   </si>
   <si>
     <t>《全球通史》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Java基础》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《JavaWEB》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Thinking in Java》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Mysql》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《JavaEE》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -569,29 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>《计算机基础》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>《网络基础》</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>《莽荒纪》——第42卷  第10章 圣域内独行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -795,6 +752,10 @@
   </si>
   <si>
     <t>《一座城池》韩寒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《囚徒健身》保罗威德</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 强调文字颜色 5" xfId="1" builtinId="47"/>
+    <cellStyle name="40% - 着色 5" xfId="1" builtinId="47"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1271,12 +1232,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1318,7 +1282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1353,7 +1317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1565,10 +1529,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:A85"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1691,14 +1655,14 @@
     <row r="13" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -1843,7 +1807,7 @@
     <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C34" s="25"/>
     </row>
@@ -1857,7 +1821,7 @@
     <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>92</v>
@@ -1916,7 +1880,7 @@
         <v>41913</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C43" s="22"/>
     </row>
@@ -1957,7 +1921,7 @@
         <v>42005</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>106</v>
@@ -1977,7 +1941,7 @@
         <v>42065</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C50" s="27"/>
     </row>
@@ -1986,17 +1950,17 @@
         <v>42097</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38"/>
       <c r="B52" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2004,14 +1968,14 @@
         <v>42125</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C54" s="22"/>
     </row>
@@ -2020,14 +1984,14 @@
         <v>42156</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
       <c r="B56" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2035,14 +1999,14 @@
         <v>42219</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="38"/>
       <c r="B58" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2050,10 +2014,7 @@
         <v>42251</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2064,7 +2025,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2072,26 +2033,26 @@
         <v>42314</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="37"/>
       <c r="B62" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38"/>
       <c r="B63" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2100,7 +2061,7 @@
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2116,7 +2077,7 @@
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2131,7 +2092,7 @@
         <v>42465</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C68" s="22"/>
     </row>
@@ -2140,14 +2101,14 @@
         <v>42496</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="37"/>
       <c r="B70" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C70" s="22"/>
     </row>
@@ -2156,34 +2117,34 @@
         <v>42528</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="37"/>
       <c r="B72" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="37"/>
       <c r="B73" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38"/>
       <c r="B74" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2192,7 +2153,7 @@
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2200,79 +2161,86 @@
         <v>42645</v>
       </c>
       <c r="B76" s="22"/>
+      <c r="C76" s="27" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>42677</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="37"/>
       <c r="B78" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="37"/>
       <c r="B79" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="37"/>
       <c r="B80" s="22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="37"/>
       <c r="B81" s="22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="37"/>
       <c r="B82" s="22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="37"/>
       <c r="B83" s="22" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="37"/>
       <c r="B84" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="38"/>
       <c r="B85" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="20"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="20">
+        <v>42706</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>163</v>
+      </c>
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2737,6 +2705,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2746,12 +2720,6 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A77:A85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2764,7 +2732,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2795,14 +2763,14 @@
     </row>
     <row r="4" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2856,7 +2824,7 @@
     </row>
     <row r="13" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2881,44 +2849,32 @@
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
-        <v>113</v>
-      </c>
+      <c r="A21" s="34"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -3186,7 +3142,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
@@ -3209,7 +3165,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -756,6 +756,14 @@
   </si>
   <si>
     <t>《囚徒健身》保罗威德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《囚徒健身2》保罗威德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《跑步圣经》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1529,10 +1537,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2235,7 +2243,7 @@
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="20">
+      <c r="A86" s="36">
         <v>42706</v>
       </c>
       <c r="B86" s="22" t="s">
@@ -2244,9 +2252,13 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="88" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="20"/>
@@ -2704,13 +2716,8 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
+  <mergeCells count="16">
+    <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2720,6 +2727,12 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -764,6 +764,10 @@
   </si>
   <si>
     <t>《跑步圣经》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《遇见未知的自己》张德芬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1179,11 +1183,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1540,7 +1544,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1593,7 +1597,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1603,14 +1607,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1626,91 +1630,91 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
@@ -1728,42 +1732,42 @@
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="24" t="s">
         <v>29</v>
       </c>
@@ -1778,56 +1782,56 @@
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="27" t="s">
         <v>139</v>
       </c>
@@ -1836,7 +1840,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
@@ -1852,14 +1856,14 @@
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
@@ -1875,7 +1879,7 @@
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -1911,14 +1915,14 @@
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
@@ -1963,7 +1967,7 @@
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="24" t="s">
         <v>115</v>
       </c>
@@ -1981,7 +1985,7 @@
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="24" t="s">
         <v>119</v>
       </c>
@@ -1997,7 +2001,7 @@
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
@@ -2012,7 +2016,7 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
@@ -2048,14 +2052,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="37"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
@@ -2114,7 +2118,7 @@
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="37"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="27" t="s">
         <v>143</v>
       </c>
@@ -2132,13 +2136,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="37"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="37"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="27" t="s">
         <v>146</v>
       </c>
@@ -2147,7 +2151,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="27" t="s">
         <v>148</v>
       </c>
@@ -2183,21 +2187,21 @@
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="37"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="37"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="37"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="22" t="s">
         <v>154</v>
       </c>
@@ -2206,14 +2210,14 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="37"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="37"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
@@ -2222,21 +2226,21 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="37"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="37"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="22" t="s">
         <v>162</v>
       </c>
@@ -2252,7 +2256,7 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="22" t="s">
         <v>164</v>
       </c>
@@ -2261,12 +2265,16 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="20"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="36">
+        <v>42769</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="20"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
     </row>
@@ -2716,7 +2724,8 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A88:A89"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -768,6 +768,10 @@
   </si>
   <si>
     <t>《遇见未知的自己》张德芬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《杜鹃蛋》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1183,6 +1187,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1235,7 +1243,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 着色 5" xfId="1" builtinId="47"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="1" builtinId="47"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,7 +1260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1294,7 +1302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1329,7 +1337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1590,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+      <c r="A3" s="37">
         <v>41730</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1597,7 +1605,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1607,21 +1615,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+      <c r="A7" s="37">
         <v>41760</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1630,91 +1638,91 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1731,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
+      <c r="A21" s="37">
         <v>41791</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -1732,48 +1740,48 @@
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36">
+      <c r="A28" s="37">
         <v>41821</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -1782,56 +1790,56 @@
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="27" t="s">
         <v>139</v>
       </c>
@@ -1840,14 +1848,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="36">
+      <c r="A38" s="37">
         <v>41852</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -1856,21 +1864,21 @@
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36">
+      <c r="A41" s="37">
         <v>41883</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -1879,7 +1887,7 @@
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -1906,7 +1914,7 @@
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36">
+      <c r="A45" s="37">
         <v>41976</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -1915,14 +1923,14 @@
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
@@ -1958,7 +1966,7 @@
       <c r="C50" s="27"/>
     </row>
     <row r="51" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="36">
+      <c r="A51" s="37">
         <v>42097</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -1967,7 +1975,7 @@
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="24" t="s">
         <v>115</v>
       </c>
@@ -1976,7 +1984,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="36">
+      <c r="A53" s="37">
         <v>42125</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -1985,14 +1993,14 @@
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="36">
+      <c r="A55" s="37">
         <v>42156</v>
       </c>
       <c r="B55" s="25" t="s">
@@ -2001,13 +2009,13 @@
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="36">
+      <c r="A57" s="37">
         <v>42219</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -2016,7 +2024,7 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="37"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
@@ -2041,7 +2049,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="36">
+      <c r="A61" s="37">
         <v>42314</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -2052,14 +2060,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="38"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
@@ -2109,7 +2117,7 @@
       <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="36">
+      <c r="A69" s="37">
         <v>42496</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -2118,14 +2126,14 @@
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="36">
+      <c r="A71" s="37">
         <v>42528</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -2136,13 +2144,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="27" t="s">
         <v>146</v>
       </c>
@@ -2151,7 +2159,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="37"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="27" t="s">
         <v>148</v>
       </c>
@@ -2178,7 +2186,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="36">
+      <c r="A77" s="37">
         <v>42677</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -2187,21 +2195,21 @@
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="22" t="s">
         <v>154</v>
       </c>
@@ -2210,14 +2218,14 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="38"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
@@ -2226,28 +2234,28 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="38"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="37"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="36">
+      <c r="A86" s="37">
         <v>42706</v>
       </c>
       <c r="B86" s="22" t="s">
@@ -2256,7 +2264,7 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="37"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="22" t="s">
         <v>164</v>
       </c>
@@ -2274,8 +2282,12 @@
       <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="37"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="36">
+        <v>42798</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="C89" s="22"/>
     </row>
     <row r="90" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2724,8 +2736,8 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A88:A89"/>
+  <mergeCells count="16">
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
@@ -2741,7 +2753,6 @@
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3134,56 +3145,56 @@
       <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="43">
         <v>42020</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -772,6 +772,14 @@
   </si>
   <si>
     <t>《杜鹃蛋》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《追风筝的人》卡勒德·胡赛尼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Burp Suite实战指南》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1191,14 +1199,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1243,7 +1251,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 强调文字颜色 5" xfId="1" builtinId="47"/>
+    <cellStyle name="40% - 着色 5" xfId="1" builtinId="47"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1260,7 +1268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1302,7 +1310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1337,7 +1345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,10 +1557,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1605,7 +1613,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1615,14 +1623,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1638,91 +1646,91 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
@@ -1740,42 +1748,42 @@
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="24" t="s">
         <v>29</v>
       </c>
@@ -1790,56 +1798,56 @@
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="39"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="39"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="27" t="s">
         <v>139</v>
       </c>
@@ -1848,7 +1856,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
@@ -1864,14 +1872,14 @@
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
@@ -1887,7 +1895,7 @@
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -1923,14 +1931,14 @@
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
@@ -1975,7 +1983,7 @@
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="24" t="s">
         <v>115</v>
       </c>
@@ -1993,7 +2001,7 @@
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="24" t="s">
         <v>119</v>
       </c>
@@ -2009,7 +2017,7 @@
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
@@ -2024,7 +2032,7 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
@@ -2060,14 +2068,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
@@ -2126,7 +2134,7 @@
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="39"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="27" t="s">
         <v>143</v>
       </c>
@@ -2144,13 +2152,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="27" t="s">
         <v>146</v>
       </c>
@@ -2159,7 +2167,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="27" t="s">
         <v>148</v>
       </c>
@@ -2195,21 +2203,21 @@
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="39"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="39"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="39"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="22" t="s">
         <v>154</v>
       </c>
@@ -2218,14 +2226,14 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="39"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="39"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
@@ -2234,21 +2242,21 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="39"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="39"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="22" t="s">
         <v>162</v>
       </c>
@@ -2264,7 +2272,7 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="22" t="s">
         <v>164</v>
       </c>
@@ -2282,7 +2290,7 @@
       <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="36">
+      <c r="A89" s="37">
         <v>42798</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -2291,9 +2299,13 @@
       <c r="C89" s="22"/>
     </row>
     <row r="90" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="20"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="91" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20"/>
@@ -2736,7 +2748,8 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -776,6 +776,10 @@
   </si>
   <si>
     <t>《追风筝的人》卡勒德·胡赛尼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《边城》沈从文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1199,11 +1203,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1557,10 +1561,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1613,7 +1617,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1623,14 +1627,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1646,91 +1650,91 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
@@ -1748,42 +1752,42 @@
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="24" t="s">
         <v>29</v>
       </c>
@@ -1798,56 +1802,56 @@
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="27" t="s">
         <v>139</v>
       </c>
@@ -1856,7 +1860,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
@@ -1872,14 +1876,14 @@
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
@@ -1895,7 +1899,7 @@
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -1931,14 +1935,14 @@
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="39"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
@@ -1983,7 +1987,7 @@
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="24" t="s">
         <v>115</v>
       </c>
@@ -2001,7 +2005,7 @@
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="24" t="s">
         <v>119</v>
       </c>
@@ -2017,7 +2021,7 @@
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="39"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="39"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
@@ -2068,14 +2072,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="38"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
@@ -2134,7 +2138,7 @@
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="27" t="s">
         <v>143</v>
       </c>
@@ -2152,13 +2156,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="27" t="s">
         <v>146</v>
       </c>
@@ -2167,7 +2171,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="27" t="s">
         <v>148</v>
       </c>
@@ -2203,21 +2207,21 @@
       <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="22" t="s">
         <v>154</v>
       </c>
@@ -2226,14 +2230,14 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="38"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="22" t="s">
         <v>157</v>
       </c>
@@ -2242,21 +2246,21 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="38"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="22" t="s">
         <v>162</v>
       </c>
@@ -2272,7 +2276,7 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="39"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="22" t="s">
         <v>164</v>
       </c>
@@ -2303,18 +2307,20 @@
       <c r="B90" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="39"/>
+      <c r="B91" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="20"/>
-      <c r="B91" s="22"/>
       <c r="C91" s="22"/>
     </row>
     <row r="92" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2749,7 +2755,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A89:A92"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>
@@ -2765,7 +2772,6 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -784,6 +784,10 @@
   </si>
   <si>
     <t>《Burp Suite实战指南》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《萧萧》《三三》沈从文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1568,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2317,15 +2321,17 @@
       <c r="C91" s="22"/>
     </row>
     <row r="92" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="38"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C93" s="22"/>
     </row>
     <row r="94" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2755,8 +2761,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A89:A93"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A89:A92"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A3:A6"/>
@@ -2771,7 +2778,6 @@
     <mergeCell ref="A77:A85"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReadRecord.xlsx
+++ b/ReadRecord.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="1170" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="2014阅读记录簿" sheetId="1" r:id="rId1"/>
+    <sheet name="阅读记录簿" sheetId="1" r:id="rId1"/>
     <sheet name="十佳亚洲小说" sheetId="6" r:id="rId2"/>
     <sheet name="软件工程" sheetId="5" r:id="rId3"/>
-    <sheet name="网络记录簿" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="历史" sheetId="7" r:id="rId4"/>
+    <sheet name="网络记录簿" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="461">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -790,6 +791,978 @@
     <t>《萧萧》《三三》沈从文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国史大纲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱穆</t>
+  </si>
+  <si>
+    <t>钱穆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国通史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕思勉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国通史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅乐成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万古江河：中国历史文化的转折与开展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许倬云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国史通论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（日）内藤湖南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫崎市定中国史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（日）宫崎市定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国：传统与变迁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美）费正清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国社会史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（法）谢和耐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫逊河畔谈中国历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国大历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄仁宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放的帝国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美）韩森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国总论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫三畏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国历史通论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断代史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国古史的传说时代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐旭生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中国通史》第二卷《远古时代》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白寿彝主编，本卷由苏秉琦主编</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何以中国：公元前2000年的中原图景</t>
+  </si>
+  <si>
+    <t>中国史纲</t>
+  </si>
+  <si>
+    <t>张荫麟</t>
+  </si>
+  <si>
+    <t>波峰与波谷</t>
+  </si>
+  <si>
+    <t>阎步克</t>
+  </si>
+  <si>
+    <t>陈寅恪魏晋南北朝史讲演录</t>
+  </si>
+  <si>
+    <t>万绳楠</t>
+  </si>
+  <si>
+    <t>东晋门阀政治</t>
+  </si>
+  <si>
+    <t>田余庆</t>
+  </si>
+  <si>
+    <t>唐代政治史述论稿</t>
+  </si>
+  <si>
+    <t>陈寅恪</t>
+  </si>
+  <si>
+    <t>六至九世纪中国政治史</t>
+  </si>
+  <si>
+    <t>黄永年</t>
+  </si>
+  <si>
+    <t>“天马”南牧：元朝的社会与文化</t>
+  </si>
+  <si>
+    <t>姚大力</t>
+  </si>
+  <si>
+    <t>明史讲义</t>
+  </si>
+  <si>
+    <t>清史讲义</t>
+  </si>
+  <si>
+    <t>孟森</t>
+  </si>
+  <si>
+    <t>叫魂：1768年中国妖术大恐慌</t>
+  </si>
+  <si>
+    <t>孔飞力</t>
+  </si>
+  <si>
+    <t>中国近代史</t>
+  </si>
+  <si>
+    <t>蒋廷黻</t>
+  </si>
+  <si>
+    <t>中国近百年政治史</t>
+  </si>
+  <si>
+    <t>李剑农</t>
+  </si>
+  <si>
+    <t>军神政权</t>
+  </si>
+  <si>
+    <t>陈志让</t>
+  </si>
+  <si>
+    <t>中国的军阀政治</t>
+  </si>
+  <si>
+    <t>齐锡生</t>
+  </si>
+  <si>
+    <t>红太阳是怎样升起的</t>
+  </si>
+  <si>
+    <t>高华</t>
+  </si>
+  <si>
+    <t>剑桥中国史 系列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲谈社《中国的历史》十卷本</t>
+  </si>
+  <si>
+    <t>制度，社会与文化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国文化概论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦政通</t>
+  </si>
+  <si>
+    <t>中国文化源与流</t>
+  </si>
+  <si>
+    <t>邢义田</t>
+  </si>
+  <si>
+    <t>邢义田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国式家庭与社会</t>
+  </si>
+  <si>
+    <t>杜正胜</t>
+  </si>
+  <si>
+    <t>中国文化与中国的兵</t>
+  </si>
+  <si>
+    <t>雷海宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国历代政治得失</t>
+  </si>
+  <si>
+    <t>国史新论</t>
+  </si>
+  <si>
+    <t>中国法律与中国社会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞿同祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝与皇权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周良宵</t>
+  </si>
+  <si>
+    <t>东方专制主义</t>
+  </si>
+  <si>
+    <t>魏特夫</t>
+  </si>
+  <si>
+    <t>皇权与绅权</t>
+  </si>
+  <si>
+    <t>吴晗、费孝通</t>
+  </si>
+  <si>
+    <t>经典常谈</t>
+  </si>
+  <si>
+    <t>朱自清</t>
+  </si>
+  <si>
+    <t>中国学术思想史随笔</t>
+  </si>
+  <si>
+    <t>曹聚仁</t>
+  </si>
+  <si>
+    <t>中国文化史通释</t>
+  </si>
+  <si>
+    <t>余英时</t>
+  </si>
+  <si>
+    <t>士与中国文化</t>
+  </si>
+  <si>
+    <t>古代中国文化讲义</t>
+  </si>
+  <si>
+    <t>葛兆光</t>
+  </si>
+  <si>
+    <t>中国思想史</t>
+  </si>
+  <si>
+    <t>汉字的文化史</t>
+  </si>
+  <si>
+    <t>藤枝晃</t>
+  </si>
+  <si>
+    <t>木简竹简述说的古代中国：书写材料的文化史</t>
+  </si>
+  <si>
+    <t>冨谷至</t>
+  </si>
+  <si>
+    <t>敦煌文书的世界</t>
+  </si>
+  <si>
+    <t>池田温</t>
+  </si>
+  <si>
+    <t>史讳举例</t>
+  </si>
+  <si>
+    <t>陈垣</t>
+  </si>
+  <si>
+    <t>天道与人文</t>
+  </si>
+  <si>
+    <t>竺可桢</t>
+  </si>
+  <si>
+    <t>发须爪：关于它们的迷信</t>
+  </si>
+  <si>
+    <t>江绍原</t>
+  </si>
+  <si>
+    <t>民俗与迷信</t>
+  </si>
+  <si>
+    <t>语言与文化</t>
+  </si>
+  <si>
+    <t> 罗常培</t>
+  </si>
+  <si>
+    <t>乡土中国</t>
+  </si>
+  <si>
+    <t>费孝通</t>
+  </si>
+  <si>
+    <t>生育制度</t>
+  </si>
+  <si>
+    <t>江村经济</t>
+  </si>
+  <si>
+    <t>中国绅士</t>
+  </si>
+  <si>
+    <t>中国社会中的日常权威</t>
+  </si>
+  <si>
+    <t>翟学伟</t>
+  </si>
+  <si>
+    <t>潜规则</t>
+  </si>
+  <si>
+    <t>我想重新解释历史</t>
+  </si>
+  <si>
+    <t>吴思</t>
+  </si>
+  <si>
+    <t>美术、神话与祭祀</t>
+  </si>
+  <si>
+    <t>张光直</t>
+  </si>
+  <si>
+    <t>美术史十议</t>
+  </si>
+  <si>
+    <t>时空中的美术</t>
+  </si>
+  <si>
+    <t>黄泉下的美术</t>
+  </si>
+  <si>
+    <t>巫鸿</t>
+  </si>
+  <si>
+    <t>立体的历史：从图像看古代中国与域外文化</t>
+  </si>
+  <si>
+    <t>万物：中国艺术中的模件化和规模化生产</t>
+  </si>
+  <si>
+    <t>雷德侯</t>
+  </si>
+  <si>
+    <t>中国建筑文化讲座</t>
+  </si>
+  <si>
+    <t>汉宝德</t>
+  </si>
+  <si>
+    <t>沈从文说文物》系列</t>
+  </si>
+  <si>
+    <t>沈从文</t>
+  </si>
+  <si>
+    <t>中国古代物质文化</t>
+  </si>
+  <si>
+    <t>孙机</t>
+  </si>
+  <si>
+    <t>古诗文名物新证</t>
+  </si>
+  <si>
+    <t>扬之水</t>
+  </si>
+  <si>
+    <t>诗经名物新证</t>
+  </si>
+  <si>
+    <t>曾有西风半点香：敦煌艺术名物丛考</t>
+  </si>
+  <si>
+    <t>中华科学文明史</t>
+  </si>
+  <si>
+    <t>李约瑟原著，柯林·罗南改编</t>
+  </si>
+  <si>
+    <t>商务“世说中国”书系：斋藤茂：《妓女与文人》、松浦章：《中国的海贼》、林巳奈夫：《刻在石头上的世界》、桥本敬造：《中国占星术的世界》等择阅 。海豚书馆和大家小书系列</t>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧家狗：我读论语</t>
+  </si>
+  <si>
+    <t>去圣乃得真孔子</t>
+  </si>
+  <si>
+    <t>李零</t>
+  </si>
+  <si>
+    <t>秦始皇的秘密</t>
+  </si>
+  <si>
+    <t>李开元</t>
+  </si>
+  <si>
+    <t>司马迁之人格与风格</t>
+  </si>
+  <si>
+    <t>道教徒的诗人李白及其痛苦</t>
+  </si>
+  <si>
+    <t>李长之</t>
+  </si>
+  <si>
+    <t>公主之死</t>
+  </si>
+  <si>
+    <t>李贞德</t>
+  </si>
+  <si>
+    <t>杀人石猜想</t>
+  </si>
+  <si>
+    <t>罗新</t>
+  </si>
+  <si>
+    <t>宫崎市定说隋炀帝：传说的暴君与湮没的史实</t>
+  </si>
+  <si>
+    <t>宫崎市定</t>
+  </si>
+  <si>
+    <t>北宋政治改革家王安石</t>
+  </si>
+  <si>
+    <t>邓广铭</t>
+  </si>
+  <si>
+    <t>谢天祐</t>
+  </si>
+  <si>
+    <t>《专制主义统治下的臣民心理》中《失掉后台的改革者》一文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王氏之死</t>
+  </si>
+  <si>
+    <t>史景迁</t>
+  </si>
+  <si>
+    <t>康熙：重构一位中国皇帝的内心世界</t>
+  </si>
+  <si>
+    <t>吴大澂和他的刻工</t>
+  </si>
+  <si>
+    <t>《雅债：文徵明的社交性艺术》</t>
+  </si>
+  <si>
+    <t>柯律格</t>
+  </si>
+  <si>
+    <t>白谦慎</t>
+  </si>
+  <si>
+    <t>苦命天子：咸丰皇帝奕詝</t>
+  </si>
+  <si>
+    <t>茅海建</t>
+  </si>
+  <si>
+    <t>李鸿章传</t>
+  </si>
+  <si>
+    <t>梁启超</t>
+  </si>
+  <si>
+    <t>李鸿章与晚清四十年</t>
+  </si>
+  <si>
+    <t>雷颐</t>
+  </si>
+  <si>
+    <t>袁氏当国</t>
+  </si>
+  <si>
+    <t>晚清七十年</t>
+  </si>
+  <si>
+    <t>唐德刚</t>
+  </si>
+  <si>
+    <t>再造文明的尝试：胡适传</t>
+  </si>
+  <si>
+    <t>重寻胡适历程</t>
+  </si>
+  <si>
+    <t> 罗志田</t>
+  </si>
+  <si>
+    <t>傅斯年：中国近代历史与政治中的个体生命</t>
+  </si>
+  <si>
+    <t>王汎森</t>
+  </si>
+  <si>
+    <t>陈寅恪晚年诗文释证</t>
+  </si>
+  <si>
+    <t>从大历史的角度读蒋介石日记</t>
+  </si>
+  <si>
+    <t>找寻真实的蒋介石——还原13个历史真相</t>
+  </si>
+  <si>
+    <t>杨天石</t>
+  </si>
+  <si>
+    <t>合肥四姊妹</t>
+  </si>
+  <si>
+    <t>金安平</t>
+  </si>
+  <si>
+    <t>王鼎钧回忆录四部曲</t>
+  </si>
+  <si>
+    <t>现代学林点将录</t>
+  </si>
+  <si>
+    <t>胡文辉</t>
+  </si>
+  <si>
+    <t>空间地理与族群生活</t>
+  </si>
+  <si>
+    <t>中国疆域沿革史</t>
+  </si>
+  <si>
+    <t>顾颉刚、史念海</t>
+  </si>
+  <si>
+    <t>中国区域历史地理</t>
+  </si>
+  <si>
+    <t>李孝聪</t>
+  </si>
+  <si>
+    <t>体国经野之道：中国行政区划沿革</t>
+  </si>
+  <si>
+    <t>周振鹤</t>
+  </si>
+  <si>
+    <t>中国历史上的基本经济区与水利事业的发展</t>
+  </si>
+  <si>
+    <t>冀朝鼎</t>
+  </si>
+  <si>
+    <t>中国历史的空间结构</t>
+  </si>
+  <si>
+    <t>鲁西奇</t>
+  </si>
+  <si>
+    <t>亿兆斯民</t>
+  </si>
+  <si>
+    <t>葛剑雄</t>
+  </si>
+  <si>
+    <t>金翼：中国家族制度的社会学研究</t>
+  </si>
+  <si>
+    <t>林耀华</t>
+  </si>
+  <si>
+    <t>上海书评选萃：谁来决定我们是谁</t>
+  </si>
+  <si>
+    <t>葛剑雄等</t>
+  </si>
+  <si>
+    <t>骑马民族国家</t>
+  </si>
+  <si>
+    <t>江上波夫</t>
+  </si>
+  <si>
+    <t>游牧民的世界史</t>
+  </si>
+  <si>
+    <t>山杉正明</t>
+  </si>
+  <si>
+    <t>长安之春</t>
+  </si>
+  <si>
+    <t>石田干之助</t>
+  </si>
+  <si>
+    <t>谢弗：《撒马尔罕的金桃》（中译本《唐代的外来文明》）</t>
+  </si>
+  <si>
+    <t>12. 薛爱华：《朱雀：唐代的南方意象》（进一步可参阅张伟然：《中古文学的地理意象》）</t>
+  </si>
+  <si>
+    <t>13. 谢和耐：《蒙元入侵前夜的中国日常生活》</t>
+  </si>
+  <si>
+    <t>14. 卜正民：《纵乐的困惑：明代的商业与文化》</t>
+  </si>
+  <si>
+    <t>15. 大木康：《风月秦淮——中国游里空间》</t>
+  </si>
+  <si>
+    <t>16. 赵园：《家人父子：由人伦探访明清之际士大夫的生活世界》</t>
+  </si>
+  <si>
+    <t>17. 杨念群：《再造病人：中西医冲突下的空间政治：1832～1985》</t>
+  </si>
+  <si>
+    <t>18. 陶孟和：《北平生活费之分析》或李景汉：《定县社会概况调查》</t>
+  </si>
+  <si>
+    <t>20. 王笛：《茶馆：成都的公共生活和微观世界》</t>
+  </si>
+  <si>
+    <t>21. 王明珂：《寻羌：羌乡田野杂记》（进一步可参阅氏著《羌在汉藏之间：川西羌族的历史人类学研究》）</t>
+  </si>
+  <si>
+    <t>22. 曹锦清：《黄河边的中国：一个学者对乡村社会的观察与思考》</t>
+  </si>
+  <si>
+    <t>23. 彼得·海斯勒：《江城》或《寻路中国》</t>
+  </si>
+  <si>
+    <t>24. 萧放：《岁时：传统中国民众的时间生活》或常建华：岁时节日里的中国</t>
+  </si>
+  <si>
+    <t>25. 中山時子：《中国饮食文化》（进一步可参阅篠田统：《中国食物史研究》）</t>
+  </si>
+  <si>
+    <t>26. 李建民：《旅行者的史学——中国医学史的旅行》</t>
+  </si>
+  <si>
+    <t>27. 赖瑞和：《杜甫的五城》或桑原骘藏：《考史游记》</t>
+  </si>
+  <si>
+    <t>史学与文学</t>
+  </si>
+  <si>
+    <t>1. 梁启超：《中国历史研究法》或傅斯年：《史学方法导论》</t>
+  </si>
+  <si>
+    <t>2. 柯文：《历史三调：作为事件、经历和神话的义和团》（进一步可参阅王汎森：《执拗的低音：一些历史思考方式的反思》）</t>
+  </si>
+  <si>
+    <t>3. 顾颉刚：《当代中国史学》及《古史辨自序》</t>
+  </si>
+  <si>
+    <t>4. 张之洞撰，范希曾补正：《书目问答补正》（辅助参考《黄永年文史五讲》）</t>
+  </si>
+  <si>
+    <t>5. 柴德赓：《史籍举要》</t>
+  </si>
+  <si>
+    <t>7. 严耕望：《治史三书》</t>
+  </si>
+  <si>
+    <t>8. 王国维：《人间词话》（进一步可参阅《王国维文学论著三种》）</t>
+  </si>
+  <si>
+    <t>9. 俞陛云：《诗境浅说》</t>
+  </si>
+  <si>
+    <t>10. 闻一多：《唐诗杂论》、《神话与诗》</t>
+  </si>
+  <si>
+    <t>11. 鲁迅：《魏晋风度及其他》、《中国小说史略》</t>
+  </si>
+  <si>
+    <t>12. 周作人：《知堂书话》（亦参孙犁：《耕堂读书记》）</t>
+  </si>
+  <si>
+    <t>13. 朱光潜：《给青年的十二封信》、《谈美书简》（抑或宗白华：《美学散步》）</t>
+  </si>
+  <si>
+    <t>14. 吉川幸次郎：《中国诗史》</t>
+  </si>
+  <si>
+    <t>15. 叶嘉莹：《叶嘉莹说陶渊明饮酒及拟古诗》或氏著其他作品</t>
+  </si>
+  <si>
+    <t>16. 小南一郎：《唐代传奇小说论》</t>
+  </si>
+  <si>
+    <t>17. 宇文所安：《追忆：中国古典文学的往事再现》</t>
+  </si>
+  <si>
+    <t>18. 大木康：《明清文人的小品世界》</t>
+  </si>
+  <si>
+    <t>19. 萨孟武：《水浒传与中国社会》、《西游记与中国古代政治》、《红楼梦与中国旧家庭》及林庚：《西游记漫话》</t>
+  </si>
+  <si>
+    <t>20. 金庸：《鹿鼎记》、《天龙八部》、《笑傲江湖》择阅（建议以倪匡《我看金庸小说》一书为导读）</t>
+  </si>
+  <si>
+    <t>21. 李欧梵：《上海摩登：一种新都市文化在中国》</t>
+  </si>
+  <si>
+    <t>22. 陈平原：《左图右史与西学东渐》</t>
+  </si>
+  <si>
+    <t>23.逯耀东：《勒马长城》或《魏晋史学及其他》</t>
+  </si>
+  <si>
+    <t>附 《剑桥中国文学史》</t>
+  </si>
+  <si>
+    <t>许宏</t>
+  </si>
+  <si>
+    <t>白寿彝老爷子《中国通史》22册本，上海人民出版社"中国断代史系列"(11册？还是多少，忘了)，北京大学《中华文明史》(4册)，中国社科院的《中国通史》，讲谈社10本，"剑桥中国史"</t>
+  </si>
+  <si>
+    <t>卜正民主编的《哈佛中国史》六卷本</t>
+  </si>
+  <si>
+    <t>6. 张舜徽：《中国古代史籍校读法》</t>
+  </si>
+  <si>
+    <r>
+      <t>19. 王铭铭：《逝去的繁荣</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一座老城的历史人类学考察</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+  </si>
+  <si>
+    <t>《浮生六记》沈复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三国演义》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《悟空传》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《爱的艺术》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《山海经》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《摆渡人》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《月亮与六便士》毛姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《致加西亚的信》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《赢在测试2》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《哈姆雷特》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小王子（英文版）》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《动物农场》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一平米健身：硬派健身》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《八十天环游地球》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《我们》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《消失的地平线》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《化身博士：斯蒂文森中短篇小说选》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一个陌生女人的来信：茨威格中短篇小说选》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智慧书》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《本杰明·巴顿奇事：菲茨杰拉德中短篇小说选》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《催眠启示录：爱伦坡中短篇小说选》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小狗钱钱》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《跟钱钱学理财》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小白理财第一课》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《穷爸爸富爸爸全集》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月到7月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +1771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +1898,42 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFAC1D10"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -958,7 +1967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1089,6 +2098,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAC1D10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1096,7 +2114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1203,15 +2221,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1256,6 +2275,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1565,10 +2592,10 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1606,7 +2633,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="38">
         <v>41730</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1629,6 +2656,9 @@
       <c r="D4" s="23">
         <v>2016</v>
       </c>
+      <c r="E4" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -1636,6 +2666,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="22"/>
+      <c r="D5" s="23">
+        <v>2017</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
@@ -1645,7 +2678,7 @@
       <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <v>41760</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1738,7 +2771,7 @@
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +2780,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>41791</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -1791,13 +2824,13 @@
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37">
+      <c r="A28" s="38">
         <v>41821</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -1864,14 +2897,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37">
+      <c r="A38" s="38">
         <v>41852</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -1894,7 +2927,7 @@
       <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37">
+      <c r="A41" s="38">
         <v>41883</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -1903,7 +2936,7 @@
       <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -1930,7 +2963,7 @@
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37">
+      <c r="A45" s="38">
         <v>41976</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -1946,7 +2979,7 @@
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
@@ -1982,7 +3015,7 @@
       <c r="C50" s="27"/>
     </row>
     <row r="51" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="37">
+      <c r="A51" s="38">
         <v>42097</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -1991,7 +3024,7 @@
       <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="24" t="s">
         <v>115</v>
       </c>
@@ -2000,7 +3033,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="37">
+      <c r="A53" s="38">
         <v>42125</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -2009,14 +3042,14 @@
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="37">
+      <c r="A55" s="38">
         <v>42156</v>
       </c>
       <c r="B55" s="25" t="s">
@@ -2025,13 +3058,13 @@
       <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="37">
+      <c r="A57" s="38">
         <v>42219</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -2040,7 +3073,7 @@
       <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
@@ -2065,7 +3098,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="37">
+      <c r="A61" s="38">
         <v>42314</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -2083,7 +3116,7 @@
       <c r="C62" s="27"/>
     </row>
     <row r="63" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="32" t="s">
         <v>132</v>
       </c>
@@ -2133,7 +3166,7 @@
       <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="37">
+      <c r="A69" s="38">
         <v>42496</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -2149,7 +3182,7 @@
       <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="37">
+      <c r="A71" s="38">
         <v>42528</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -2175,7 +3208,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="27" t="s">
         <v>148</v>
       </c>
@@ -2202,7 +3235,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="37">
+      <c r="A77" s="38">
         <v>42677</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -2264,14 +3297,14 @@
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="37">
+      <c r="A86" s="38">
         <v>42706</v>
       </c>
       <c r="B86" s="22" t="s">
@@ -2280,7 +3313,7 @@
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="22" t="s">
         <v>164</v>
       </c>
@@ -2298,7 +3331,7 @@
       <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="37">
+      <c r="A89" s="38">
         <v>42798</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -2328,135 +3361,187 @@
       <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="38"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="22" t="s">
         <v>171</v>
       </c>
       <c r="C93" s="22"/>
     </row>
     <row r="94" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="20"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>435</v>
+      </c>
       <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="20"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="22" t="s">
+        <v>436</v>
+      </c>
       <c r="C95" s="22"/>
     </row>
     <row r="96" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="20"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="22" t="s">
+        <v>437</v>
+      </c>
       <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="22" t="s">
+        <v>438</v>
+      </c>
       <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="20"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="22" t="s">
+        <v>439</v>
+      </c>
       <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="20"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="22" t="s">
+        <v>440</v>
+      </c>
       <c r="C99" s="22"/>
     </row>
     <row r="100" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="20"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="22" t="s">
+        <v>441</v>
+      </c>
       <c r="C100" s="22"/>
     </row>
     <row r="101" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="20"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="22" t="s">
+        <v>442</v>
+      </c>
       <c r="C101" s="22"/>
     </row>
     <row r="102" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="22" t="s">
+        <v>443</v>
+      </c>
       <c r="C102" s="22"/>
     </row>
     <row r="103" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="20"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="22" t="s">
+        <v>444</v>
+      </c>
       <c r="C103" s="22"/>
     </row>
     <row r="104" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="20"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="22" t="s">
+        <v>445</v>
+      </c>
       <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="20"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="22" t="s">
+        <v>446</v>
+      </c>
       <c r="C105" s="22"/>
     </row>
     <row r="106" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="20"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="22" t="s">
+        <v>447</v>
+      </c>
       <c r="C106" s="22"/>
     </row>
     <row r="107" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="20"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="22" t="s">
+        <v>448</v>
+      </c>
       <c r="C107" s="22"/>
     </row>
     <row r="108" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="20"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="C108" s="22"/>
     </row>
     <row r="109" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="20"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="22" t="s">
+        <v>450</v>
+      </c>
       <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="20"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="C110" s="22"/>
     </row>
     <row r="111" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="20"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="22" t="s">
+        <v>452</v>
+      </c>
       <c r="C111" s="22"/>
     </row>
     <row r="112" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="20"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="22" t="s">
+        <v>453</v>
+      </c>
       <c r="C112" s="22"/>
     </row>
     <row r="113" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="20"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="22" t="s">
+        <v>454</v>
+      </c>
       <c r="C113" s="22"/>
     </row>
     <row r="114" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="20"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="22" t="s">
+        <v>455</v>
+      </c>
       <c r="C114" s="22"/>
     </row>
     <row r="115" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="20"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="22" t="s">
+        <v>456</v>
+      </c>
       <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="20"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="22" t="s">
+        <v>457</v>
+      </c>
       <c r="C116" s="22"/>
     </row>
     <row r="117" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="20"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="22" t="s">
+        <v>458</v>
+      </c>
       <c r="C117" s="22"/>
     </row>
     <row r="118" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="20"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="22" t="s">
+        <v>459</v>
+      </c>
       <c r="C118" s="22"/>
     </row>
     <row r="119" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -2760,12 +3845,16 @@
       <c r="C178" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A94:A118"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -2775,9 +3864,6 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3146,6 +4232,1369 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E159"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="52"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="52"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="53"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="52"/>
+      <c r="B43" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="52"/>
+      <c r="B45" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="52"/>
+      <c r="B47" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="52"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="52"/>
+      <c r="B50" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="52"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
+      <c r="B57" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
+      <c r="B58" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="52"/>
+      <c r="B59" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="52"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="52"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="52"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="52"/>
+      <c r="B65" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+      <c r="B66" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="52"/>
+      <c r="B67" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="52"/>
+      <c r="B68" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="52"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="52"/>
+      <c r="B69" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="52"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+      <c r="B70" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
+      <c r="B71" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+      <c r="B72" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="52"/>
+      <c r="B73" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="52"/>
+      <c r="B74" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="52"/>
+      <c r="B75" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="52"/>
+      <c r="B76" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="52"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="52"/>
+      <c r="B77" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="52"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="52"/>
+      <c r="B78" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="52"/>
+      <c r="B79" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="52"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="52"/>
+      <c r="B81" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="52"/>
+      <c r="B82" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="52"/>
+      <c r="B83" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="52"/>
+      <c r="B84" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+      <c r="B86" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="52"/>
+      <c r="B87" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="52"/>
+      <c r="B88" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="52"/>
+      <c r="B90" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="52"/>
+      <c r="B91" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="52"/>
+      <c r="B92" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="52"/>
+      <c r="B93" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="52"/>
+      <c r="B94" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="52"/>
+      <c r="B96" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="52"/>
+      <c r="B97" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="52"/>
+      <c r="B98" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="52"/>
+      <c r="B99" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="52"/>
+      <c r="B100" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="52"/>
+      <c r="B101" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="52"/>
+      <c r="B102" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="52"/>
+      <c r="B103" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="52"/>
+      <c r="B104" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="52"/>
+      <c r="B105" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="52"/>
+      <c r="B106" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C106" s="52"/>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="52"/>
+      <c r="B107" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="52"/>
+      <c r="B109" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="52"/>
+      <c r="B110" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="52"/>
+      <c r="B111" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="52"/>
+      <c r="B112" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="52"/>
+      <c r="B113" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="52"/>
+      <c r="B114" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="52"/>
+      <c r="B115" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="52"/>
+      <c r="B116" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="52"/>
+      <c r="B117" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="52"/>
+      <c r="B118" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C118" s="53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="52"/>
+      <c r="B119" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="C119" s="52"/>
+    </row>
+    <row r="120" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="52"/>
+      <c r="B120" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120" s="52"/>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="52"/>
+      <c r="B121" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="C121" s="52"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="52"/>
+      <c r="B122" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" s="52"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="52"/>
+      <c r="B123" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C123" s="52"/>
+    </row>
+    <row r="124" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="52"/>
+      <c r="B124" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="52"/>
+    </row>
+    <row r="125" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="52"/>
+      <c r="B125" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C125" s="52"/>
+    </row>
+    <row r="126" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="52"/>
+      <c r="B126" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="52"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="52"/>
+      <c r="B127" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" s="52"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="52"/>
+      <c r="B128" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="C128" s="52"/>
+    </row>
+    <row r="129" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="52"/>
+      <c r="B129" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" s="52"/>
+    </row>
+    <row r="130" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="52"/>
+      <c r="B130" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="C130" s="52"/>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="52"/>
+      <c r="B131" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C131" s="52"/>
+    </row>
+    <row r="132" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="52"/>
+      <c r="B132" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C132" s="52"/>
+    </row>
+    <row r="133" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="52"/>
+      <c r="B133" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C133" s="52"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="52"/>
+      <c r="B134" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="C134" s="52"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="52"/>
+      <c r="B135" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="C135" s="52"/>
+    </row>
+    <row r="136" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="B136" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="52"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="52"/>
+      <c r="B137" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" s="52"/>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="52"/>
+      <c r="B138" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="52"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="52"/>
+      <c r="B139" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" s="52"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="52"/>
+      <c r="B140" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="52"/>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C141" s="52"/>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A142" s="52"/>
+      <c r="B142" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" s="52"/>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="52"/>
+      <c r="B143" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C143" s="52"/>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="52"/>
+      <c r="B144" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="C144" s="52"/>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="52"/>
+      <c r="B145" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="C145" s="52"/>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A146" s="52"/>
+      <c r="B146" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="C146" s="52"/>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="52"/>
+      <c r="B147" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C147" s="52"/>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="52"/>
+      <c r="B148" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="C148" s="52"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A149" s="52"/>
+      <c r="B149" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="C149" s="52"/>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A150" s="52"/>
+      <c r="B150" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C150" s="52"/>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="52"/>
+      <c r="B151" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="52"/>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A152" s="52"/>
+      <c r="B152" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="52"/>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="C153" s="52"/>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C154" s="52"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A155" s="52"/>
+      <c r="B155" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C155" s="52"/>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A156" s="52"/>
+      <c r="B156" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C156" s="52"/>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A157" s="52"/>
+      <c r="B157" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="C157" s="52"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="52"/>
+      <c r="B158" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C158" s="52"/>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="52"/>
+      <c r="B159" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C159" s="52"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3170,56 +5619,56 @@
       <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="44">
         <v>42020</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
